--- a/dev-notes/mem-check.xlsx
+++ b/dev-notes/mem-check.xlsx
@@ -399,7 +399,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
